--- a/setPruebasSemana7/pruebas.xlsx
+++ b/setPruebasSemana7/pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pardo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8572F927-8131-48B0-816A-846992E60FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F886E-6144-45F5-9F57-1B7B5F501055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F30E625-39C9-45D7-B554-E6C9504FFA98}"/>
   </bookViews>
@@ -36,14 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="121">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Como equipo de aseguramiento de calidad (QA) encargado de las pruebas en el aplicativo Ghost utilizando las herramientas Cypress y Kraken, hemos integrado tres estrategias de prueba clave para garantizar una cobertura exhaustiva y efectiva del software. Aquí se describe cómo cada estrategia se ha incorporado en nuestro proceso de pruebas:
@@ -55,7 +54,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Pool de datos a-priori:
@@ -66,7 +64,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Hemos diseñado un conjunto de datos anticipados basados en nuestro conocimiento previo y las especificaciones del sistema Ghost. Esta estrategia se emplea en pruebas como la creación y modificación de tags y posts, donde la consistencia y la validez de los datos son cruciales. Al utilizar datos a-priori, aseguramos que las funcionalidades clave se prueben con datos representativos y concretos, lo que nos permite verificar el comportamiento esperado del aplicativo en condiciones controladas.
@@ -78,7 +75,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Pool de datos (pseudo) aleatorio dinámico:
@@ -89,7 +85,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Para complementar el enfoque a-priori, generamos datos de prueba dinámicos y pseudoaleatorios utilizando Cypress. Esto nos permite simular entradas de usuario más diversas y descubrir defectos que podrían no manifestarse con un conjunto de datos estático. Pruebas como la edición de nombres con datos inválidos y la creación de posts con contenido Faker se benefician de esta técnica, ya que nos permite probar los límites y la robustez de las validaciones de campo en Ghost.
@@ -101,7 +96,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Escenario aleatorio:
@@ -112,7 +106,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Finalmente, hemos incorporado escenarios aleatorios en nuestras pruebas con el objetivo de simular el comportamiento impredecible de un usuario real. Por ejemplo, al crear posts con descripciones de contenido máximo aleatorio, no seguimos un guion predefinido, sino que permitimos que la naturaleza aleatoria de la prueba guíe las acciones. Esta técnica, ejecutada tanto con Cypress como con Kraken, es esencial para identificar problemas que solo surgen durante interacciones inesperadas o secuencias de eventos poco comunes.
@@ -343,6 +336,51 @@
   </si>
   <si>
     <t>Crear post con markdown invalido</t>
+  </si>
+  <si>
+    <t>Crear post con HTML</t>
+  </si>
+  <si>
+    <t>Crear post con link de X</t>
+  </si>
+  <si>
+    <t>Crear post con link de X invalido</t>
+  </si>
+  <si>
+    <t>Crear post con link de vimeo</t>
+  </si>
+  <si>
+    <t>Crear post con link de vimeo invalido</t>
+  </si>
+  <si>
+    <t>Crear post con bookmark</t>
+  </si>
+  <si>
+    <t>Crear post con bookmark invalido</t>
+  </si>
+  <si>
+    <t>Crear post con bookmark vacio</t>
+  </si>
+  <si>
+    <t>Crear post con spotify</t>
+  </si>
+  <si>
+    <t>Crear post con spotify invalido</t>
+  </si>
+  <si>
+    <t>Crear post con spotify vacio</t>
+  </si>
+  <si>
+    <t>Cambiar lenguaje con palabra aleatorio</t>
+  </si>
+  <si>
+    <t>Cambiar lenguaje con caracteres especiales</t>
+  </si>
+  <si>
+    <t>Creación tag con metadata de caracteres especiales</t>
+  </si>
+  <si>
+    <t>Crear post con botón con craracteres especiales</t>
   </si>
   <si>
     <t>Login correcto</t>
@@ -466,7 +504,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,7 +511,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1014,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6190D79-008B-43AE-9532-502EE2B7991D}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,202 +2438,202 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D126" s="4"/>
+      <c r="D126" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E126" s="4"/>
-      <c r="F126" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D129" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>88</v>
@@ -2605,15 +2641,15 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>89</v>
@@ -2621,15 +2657,15 @@
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>90</v>
@@ -2637,18 +2673,18 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
@@ -2658,29 +2694,29 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
@@ -2690,13 +2726,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
@@ -2706,77 +2742,77 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -2786,45 +2822,45 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D148" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E148" s="4"/>
-      <c r="F148" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D149" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E149" s="4"/>
-      <c r="F149" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
@@ -2834,51 +2870,387 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
+        <v>99</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>100</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>101</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>102</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>103</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>104</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>105</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>106</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>107</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>108</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>109</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>110</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>111</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>112</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>113</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>114</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>115</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>116</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>117</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>118</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>119</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>120</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="4"/>
+      <c r="B174" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
